--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12750" windowHeight="2910"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16755" windowHeight="2910"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:Q8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>url</t>
   </si>
@@ -29,19 +29,62 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>amana</t>
+  </si>
+  <si>
+    <t>kamal</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>safari</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>shailendra@appypiellp.com</t>
+  </si>
+  <si>
+    <t>aman@yopmail.com</t>
+  </si>
+  <si>
+    <t>Secure@web1</t>
+  </si>
+  <si>
+    <t>kamao90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,13 +104,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,43 +414,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16755" windowHeight="2910"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16755" windowHeight="2910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>url</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>kamao90</t>
+  </si>
+  <si>
+    <t>validdata</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
@@ -510,12 +513,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>